--- a/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.48</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>98.08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006009</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合A</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006010</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合C</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>007381</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>国融融信消费严选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007381</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合A</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -800,15 +910,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>84.84</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>006009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>国融融银灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -856,15 +986,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.42</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>166108</t>
+          <t>006010</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
+          <t>国融融银灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>166108</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>信达澳银量化多因子混合（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1098,7 +1099,6 @@
           <t>国融融君灵活配置混合C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>84.76</t>
@@ -1114,6 +1114,252 @@
       </c>
       <c r="H14" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1365,4 +1366,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2030,4 +2031,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2039,7 +2040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2050,17 +2051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2070,14 +2091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.04</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2086,14 +2129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.3</v>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2102,14 +2167,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.74</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2118,13 +2205,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2400,7 +2401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2411,17 +2412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2431,14 +2452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2447,14 +2490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.04</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2463,14 +2528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.3</v>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2479,14 +2566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.74</v>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2495,13 +2604,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2837,7 +2838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2848,17 +2849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2868,14 +2889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="3">
@@ -2884,14 +2927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2900,14 +2965,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.04</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -2916,14 +3087,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6">
@@ -2932,14 +3103,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
@@ -2948,13 +3119,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600170-上海建工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>3.36</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.04</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>1.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -600,6 +617,440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7794</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2229,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2475,7 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3018,7 +3469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
